--- a/Test Cases/TestCae-1.xlsx
+++ b/Test Cases/TestCae-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB522E2E-46A1-41DD-AFF8-F46D61DAA4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8F592B-6D64-4071-909A-7BD3BB2B79B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>Test Case#</t>
   </si>
@@ -262,12 +262,6 @@
   </si>
   <si>
     <t>Creation Date</t>
-  </si>
-  <si>
-    <t>Reviewed By</t>
-  </si>
-  <si>
-    <t>Reviewed Date</t>
   </si>
   <si>
     <r>
@@ -561,39 +555,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -664,6 +630,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -678,47 +659,23 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -732,6 +689,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,24 +723,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -976,11 +957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1004,7 +985,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,89 +1012,162 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="6" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+    </row>
+    <row r="7" spans="1:26" ht="43.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-    </row>
-    <row r="9" spans="1:26" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1132,26 +1186,22 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="228" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>81</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
@@ -1174,26 +1224,22 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>3</v>
+    <row r="11" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>5</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>22</v>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>27</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="12" t="s">
         <v>14</v>
       </c>
@@ -1216,24 +1262,30 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>4</v>
+    <row r="12" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>6</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="9"/>
@@ -1254,24 +1306,28 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>26</v>
+      <c r="D13" s="11">
+        <v>123</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="12" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="9"/>
@@ -1292,28 +1348,22 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="27"/>
       <c r="C14" s="10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>29</v>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>36</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="12" t="s">
         <v>30</v>
       </c>
@@ -1336,28 +1386,24 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
-      <c r="D15" s="11">
-        <v>123</v>
+      <c r="D15" s="11" t="s">
+        <v>38</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>32</v>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>84</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="9"/>
@@ -1378,22 +1424,26 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="73.5" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1418,22 +1468,26 @@
     </row>
     <row r="17" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="9"/>
@@ -1454,29 +1508,27 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="73.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>40</v>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="H18" s="10"/>
       <c r="I18" s="13"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1496,29 +1548,23 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>44</v>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>18</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="13"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1538,27 +1584,31 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="C20" s="10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1578,23 +1628,29 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
     </row>
-    <row r="21" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
+        <v>15</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="10" t="s">
-        <v>49</v>
+      <c r="H21" s="12" t="s">
+        <v>54</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
       <c r="I21" s="13"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1616,21 +1672,19 @@
     </row>
     <row r="22" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>51</v>
+      <c r="B22" s="27"/>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>52</v>
+      <c r="D22" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>11</v>
+      <c r="E22" s="11" t="s">
+        <v>44</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -1658,29 +1712,27 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
-        <v>15</v>
+        <v>17</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="10" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>56</v>
+      <c r="D23" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="H23" s="12"/>
       <c r="I23" s="13"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1702,26 +1754,28 @@
     </row>
     <row r="24" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="C24" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>58</v>
+      <c r="D24" s="11" t="s">
+        <v>61</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>91</v>
+      <c r="F24" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="9"/>
@@ -1742,28 +1796,30 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
     </row>
-    <row r="25" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>17</v>
+    <row r="25" spans="1:26" ht="43.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>19</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="10" t="s">
-        <v>68</v>
+      <c r="B25" s="27"/>
+      <c r="C25" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>69</v>
+      <c r="D25" s="19">
+        <v>11799424097</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>70</v>
+      <c r="E25" s="18" t="s">
+        <v>44</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>71</v>
+      <c r="F25" s="18" t="s">
+        <v>91</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
+      <c r="H25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -1782,74 +1838,56 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
     </row>
-    <row r="26" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
-        <v>18</v>
+        <v>20</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>59</v>
-      </c>
+      <c r="B26" s="28"/>
       <c r="C26" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="H26" s="10"/>
       <c r="I26" s="13"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-    </row>
-    <row r="27" spans="1:26" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
-        <v>19</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="19">
-        <v>11799424097</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="21"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -1868,45 +1906,33 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
     </row>
-    <row r="28" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
-        <v>20</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="13"/>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
@@ -29292,86 +29318,30 @@
       <c r="Y1006" s="9"/>
       <c r="Z1006" s="9"/>
     </row>
-    <row r="1007" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1007" s="22"/>
-      <c r="B1007" s="23"/>
-      <c r="C1007" s="24"/>
-      <c r="D1007" s="23"/>
-      <c r="E1007" s="24"/>
-      <c r="F1007" s="24"/>
-      <c r="G1007" s="24"/>
-      <c r="H1007" s="24"/>
-      <c r="I1007" s="9"/>
-      <c r="J1007" s="9"/>
-      <c r="K1007" s="9"/>
-      <c r="L1007" s="9"/>
-      <c r="M1007" s="9"/>
-      <c r="N1007" s="9"/>
-      <c r="O1007" s="9"/>
-      <c r="P1007" s="9"/>
-      <c r="Q1007" s="9"/>
-      <c r="R1007" s="9"/>
-      <c r="S1007" s="9"/>
-      <c r="T1007" s="9"/>
-      <c r="U1007" s="9"/>
-      <c r="V1007" s="9"/>
-      <c r="W1007" s="9"/>
-      <c r="X1007" s="9"/>
-      <c r="Y1007" s="9"/>
-      <c r="Z1007" s="9"/>
-    </row>
-    <row r="1008" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1008" s="22"/>
-      <c r="B1008" s="23"/>
-      <c r="C1008" s="24"/>
-      <c r="D1008" s="23"/>
-      <c r="E1008" s="24"/>
-      <c r="F1008" s="24"/>
-      <c r="G1008" s="24"/>
-      <c r="H1008" s="24"/>
-      <c r="I1008" s="9"/>
-      <c r="J1008" s="9"/>
-      <c r="K1008" s="9"/>
-      <c r="L1008" s="9"/>
-      <c r="M1008" s="9"/>
-      <c r="N1008" s="9"/>
-      <c r="O1008" s="9"/>
-      <c r="P1008" s="9"/>
-      <c r="Q1008" s="9"/>
-      <c r="R1008" s="9"/>
-      <c r="S1008" s="9"/>
-      <c r="T1008" s="9"/>
-      <c r="U1008" s="9"/>
-      <c r="V1008" s="9"/>
-      <c r="W1008" s="9"/>
-      <c r="X1008" s="9"/>
-      <c r="Y1008" s="9"/>
-      <c r="Z1008" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D25" r:id="rId16" xr:uid="{D0FF8ED5-5589-42B3-B97C-4C20850C9252}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{D0FF8ED5-5589-42B3-B97C-4C20850C9252}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
